--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_200/Tests_Estadisticos/dm_comparaciones_EnCQR-LSTM_Lineal_No_Estacionario_ARIMA.xlsx
@@ -438,10 +438,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>0.6817883602140041</v>
+        <v>0.7910369926831037</v>
       </c>
       <c r="D2">
-        <v>0.4954668187961957</v>
+        <v>0.4373678028254557</v>
       </c>
       <c r="E2">
         <v>4.503812707755325</v>
@@ -464,10 +464,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>-0.1646460894946389</v>
+        <v>-0.1910957353320806</v>
       </c>
       <c r="D3">
-        <v>0.8692423708718007</v>
+        <v>0.8502031780747414</v>
       </c>
       <c r="E3">
         <v>4.503812707755325</v>
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>0.05975098656187111</v>
+        <v>0.04522190003856343</v>
       </c>
       <c r="D4">
-        <v>0.952361073574858</v>
+        <v>0.9643384124858849</v>
       </c>
       <c r="E4">
         <v>4.503812707755325</v>
@@ -516,10 +516,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>-0.6841294034928364</v>
+        <v>-0.6633795859031241</v>
       </c>
       <c r="D5">
-        <v>0.4939878672950453</v>
+        <v>0.5139793536714663</v>
       </c>
       <c r="E5">
         <v>4.503812707755325</v>
@@ -542,10 +542,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>-0.7506497351609389</v>
+        <v>-0.7827676137257374</v>
       </c>
       <c r="D6">
-        <v>0.4529686647587665</v>
+        <v>0.4421085662956872</v>
       </c>
       <c r="E6">
         <v>4.308451514263713</v>
@@ -568,10 +568,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>-0.393254979256879</v>
+        <v>-0.297281874158327</v>
       </c>
       <c r="D7">
-        <v>0.6941810933474417</v>
+        <v>0.7690402375463683</v>
       </c>
       <c r="E7">
         <v>4.308451514263713</v>
@@ -594,10 +594,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>-1.321465611882376</v>
+        <v>-1.082166271550063</v>
       </c>
       <c r="D8">
-        <v>0.1865261991026805</v>
+        <v>0.2908980649845574</v>
       </c>
       <c r="E8">
         <v>4.308451514263713</v>
@@ -620,10 +620,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0.2008947817162601</v>
+        <v>0.1562304203015938</v>
       </c>
       <c r="D9">
-        <v>0.8408051804716803</v>
+        <v>0.8772761606385766</v>
       </c>
       <c r="E9">
         <v>4.553828299282592</v>
@@ -646,10 +646,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>-0.5251273701597411</v>
+        <v>-0.4484750573824606</v>
       </c>
       <c r="D10">
-        <v>0.5995639836437272</v>
+        <v>0.65819632758061</v>
       </c>
       <c r="E10">
         <v>4.553828299282592</v>
@@ -672,10 +672,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-0.5955022534634762</v>
+        <v>-0.4077096691111827</v>
       </c>
       <c r="D11">
-        <v>0.5515880500537094</v>
+        <v>0.687427203291465</v>
       </c>
       <c r="E11">
         <v>4.477054781873195</v>
